--- a/biology/Zoologie/Herennia_multipuncta/Herennia_multipuncta.xlsx
+++ b/biology/Zoologie/Herennia_multipuncta/Herennia_multipuncta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Herennia multipuncta est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Herennia multipuncta est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Sri Lanka, au Népal, en Birmanie, en Thaïlande, au Viêt Nam, en Chine à Hainan, à Taïwan, aux Philippines, en Malaisie, à Singapour et en Indonésie à Sumatra, au Kalimantan, à Sulawesi et aux Moluques[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Sri Lanka, au Népal, en Birmanie, en Thaïlande, au Viêt Nam, en Chine à Hainan, à Taïwan, aux Philippines, en Malaisie, à Singapour et en Indonésie à Sumatra, au Kalimantan, à Sulawesi et aux Moluques,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Kuntner en 2005 mesure 3,5 mm et la femelle 12,8 mm, les mâles mesurent de 3,3 à 3,5 mm et les femelles de 8,1 à 19,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Kuntner en 2005 mesure 3,5 mm et la femelle 12,8 mm, les mâles mesurent de 3,3 à 3,5 mm et les femelles de 8,1 à 19,8 mm.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira multipuncta par Doleschall en 1859. Elle est placée dans le genre Herennia par Thorell en 1877[3].
-Epeira ornatissima[4] a été placée en synonymie par Thorell en 1877[3].
-Epeira mammillaris[5] a été placée en synonymie par Thorell en 1887[6].
-Herennia sampitana[7] et Herennia mollis[6] ont été placées en synonymie par Kuntner en 2005[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Epeira multipuncta par Doleschall en 1859. Elle est placée dans le genre Herennia par Thorell en 1877.
+Epeira ornatissima a été placée en synonymie par Thorell en 1877.
+Epeira mammillaris a été placée en synonymie par Thorell en 1887.
+Herennia sampitana et Herennia mollis ont été placées en synonymie par Kuntner en 2005.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Doleschall, 1859 : « Tweede Bijdrage tot de Kenntis der Arachniden van den Indischen Archipel. » Acta Societatis Scientiarum Indo-Neerlandicae, vol. 5, p. 1-60 (texte intégral).</t>
         </is>
